--- a/biology/Botanique/Quiina/Quiina.xlsx
+++ b/biology/Botanique/Quiina/Quiina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Quiina est un genre de plantes à fleurs de la famille des Ochnaceae. Ce sont des arbres ou des arbustes originaires d'Amérique tropicale et des Caraibes, et dont l'espèce type est Quiina guianensis Aubl..
 </t>
@@ -511,9 +523,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « QUIINA. (Tabula 379.)
 CAL. Perianthium monophyllum, quadripartitum, minimum.
 COR. STAM. PIST. deſiderantur.
@@ -547,7 +561,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a donné son nom à l'ancienne famille des Quiinaceae, qui a été fusionnée à la famille des Ochnaceae
 </t>
@@ -578,7 +594,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Quiina compterait une cinquantaine d'espèces.
 Quiina acutangula
@@ -594,7 +612,7 @@
 Quiina guianensis
 Quiina jamaicensis, Griseb.
 Quiina schippii
-Selon GBIF       (02 mai 2022)[1] :
+Selon GBIF       (02 mai 2022) :
 Quiina amazonica A.C.Sm.
 Quiina attenuata J.V.Schneid &amp; Zizka
 Quiina berryi J.V.Schneid. &amp; Zizka
